--- a/TestDir/TestData/Qone.xlsx
+++ b/TestDir/TestData/Qone.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
   <si>
     <t>Depends</t>
   </si>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>getareacodeconllection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://172.16.5.33:8080/nauth/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,15 +246,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'username':'shuangshuangwei','password':'qwer@123'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Content-Type': 'application/x-www-form-urlencoded'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status_code':'200','登录成功信息':'您好, 魏双双' }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,8 +271,112 @@
   </si>
   <si>
     <t>{'status_code': '200',
-'RESPONSE_STATUS': 'OK',
-'ERROR_MESSAGE':'None','NAME':'刘云' }</t>
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","CHANGE_PRODUCT_FLAG":"Y","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CUSTOMER":{"INCOME_MONTHLY_FROM_JOB":"30000.00"},"PRE_APP_JOB":{"COM_ADDRESS":"$adress$","COM_CITY":"420100","COM_NAME":"$cpname$","COM_POSITION":"comPositionA","COM_PROVINCE":"420000","COM_TEL_NO":"$fphone$","COM_TYPE":"comTypeBB","DATE_JOIN":"2013/06/21 10:00:00","EMAIL":"$email$"},"PRE_APP_LOAN":{"APPLY_AMT":"30000","TERMS":18},"PRODUCT_CODE":"productCoderapid-3-1_19-18","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","STATE":"SUBMIT","STEP":"CUSTOMER","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_APP_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","STATE":"SUBMIT","STEP":"PRODUCT","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/preappmain/getsavebankcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,98 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/preappmain/saveprocess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveprocess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"APP_KEY":"10001","CHANGE_PRODUCT_FLAG":"Y","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CUSTOMER":{"INCOME_MONTHLY_FROM_JOB":"30000.00"},"PRE_APP_JOB":{"COM_ADDRESS":"$adress$","COM_CITY":"420100","COM_NAME":"$cpname$","COM_POSITION":"comPositionA","COM_PROVINCE":"420000","COM_TEL_NO":"$fphone$","COM_TYPE":"comTypeBB","DATE_JOIN":"2013/06/21 10:00:00","EMAIL":"$email$"},"PRE_APP_LOAN":{"APPLY_AMT":"30000","TERMS":18},"PRODUCT_CODE":"productCoderapid-3-1_19-18","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"APP_KEY":"10001","DEVICE_VERSION":"$deviceversion$","FORMAT":"json","PRE_APP_CODE":"$PRE_APP_CODE$","STATE":"SUBMIT","STEP":"CUSTOMER","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRE_APP_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","STATE":"SUBMIT","STEP":"PRODUCT","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/preappmain/saveproduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>getsavebankcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/preappmain/getsavebankcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,13 +394,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","PRE_APP_CODE":"$PRE_APP_CODE$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status_code': '200',
-'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
+    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer,/api/preappmain/saveproduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,29 +407,6 @@
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login,/api/preappmain/create,/api/preappmain/savecustomer,/api/preappmain/saveproduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status_code': '200',
-'TOTAL_COUNT': "276",
-'ERROR_CODE': 'None',
-'ERROR_MESSAGE':'None' }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,10 +442,6 @@
   </si>
   <si>
     <t>/api/PreAppMain/Query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,USER_ACCOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,15 +523,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need_Collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <t>/api/CobraUser/Login_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code': '200',
+'TOTAL_COUNT': "289",
+'ERROR_CODE': 'None',
+'ERROR_MESSAGE':'None' }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY': '10001', 'DEVICE_VERSION': '$deviceversion$', 'FORMAT': 'json', 'TELPHONE': '$account$', 'TIMESTAMP': '$tm$', 'VERSION': '$veron$', 'U_ID': 'ANDROID', 'PASSWORD': '$password$', 'SIGN': '$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,USER_ACCOUNT,$account$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.5.33:8080/nauth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'username':'shuangshuangwei','password':'qwer@1234'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status_code':'200','In':['您好, 魏双双','一级菜单焦点']}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Equal':{'status_code': '200',
+'RESPONSE_STATUS': 'OK',
+'ERROR_MESSAGE':'None',
+'NAME':'刘云',
+'TELPHONE':'$account$' },
+'In':['刘云','登录成功12']}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -723,6 +742,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1050,7 @@
     <col min="5" max="5" width="6.75" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="62.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="40.75" style="1" bestFit="1" customWidth="1"/>
@@ -1049,11 +1080,11 @@
       <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>8</v>
+      <c r="H1" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>9</v>
@@ -1065,15 +1096,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>12</v>
@@ -1083,161 +1114,161 @@
         <v>13</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>63</v>
+      <c r="K2" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="H3" s="27"/>
       <c r="I3" s="17" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="H4" s="27"/>
       <c r="I4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="H5" s="27"/>
       <c r="I5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="H6" s="27"/>
       <c r="I6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>17</v>
@@ -1253,25 +1284,25 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -1287,31 +1318,31 @@
         <v>10</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="I8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>12</v>
@@ -1321,31 +1352,31 @@
         <v>10</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>12</v>
@@ -1355,31 +1386,31 @@
         <v>10</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>12</v>
@@ -1389,33 +1420,33 @@
         <v>10</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>69</v>
+        <v>121</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>12</v>
@@ -1425,31 +1456,31 @@
         <v>10</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>12</v>
@@ -1459,31 +1490,31 @@
         <v>10</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="H13" s="27"/>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
@@ -1493,31 +1524,31 @@
         <v>10</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="27"/>
       <c r="I14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>12</v>
@@ -1527,31 +1558,31 @@
         <v>10</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="H15" s="27"/>
       <c r="I15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>12</v>
@@ -1561,31 +1592,31 @@
         <v>10</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="L16" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>12</v>
@@ -1595,31 +1626,31 @@
         <v>10</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="H17" s="27"/>
       <c r="I17" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>12</v>
@@ -1629,86 +1660,86 @@
         <v>10</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="H18" s="27"/>
       <c r="I18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="H19" s="27"/>
       <c r="I19" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="H20" s="27"/>
       <c r="I20" s="20"/>
       <c r="J20" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1722,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1782,32 +1813,32 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="H2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1879,13 +1910,13 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>12</v>
@@ -1895,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1903,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
